--- a/data-raw/christidis.wheat.uniformity.xlsx
+++ b/data-raw/christidis.wheat.uniformity.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E95E7A-9B90-4B2B-A148-7773E30291FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="132" windowWidth="15168" windowHeight="7524"/>
+    <workbookView xWindow="3240" yWindow="2200" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,14 +64,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -103,7 +112,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -175,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -348,16 +357,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>85</v>
       </c>
@@ -395,7 +404,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>87</v>
       </c>
@@ -433,7 +442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>88</v>
       </c>
@@ -471,7 +480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>100</v>
       </c>
@@ -509,7 +518,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>76</v>
       </c>
@@ -547,7 +556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>76</v>
       </c>
@@ -585,7 +594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>78</v>
       </c>
@@ -623,7 +632,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>94</v>
       </c>
@@ -661,7 +670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>79</v>
       </c>
@@ -699,7 +708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>74</v>
       </c>
@@ -737,7 +746,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>92</v>
       </c>
@@ -775,7 +784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>61</v>
       </c>
@@ -813,7 +822,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>76</v>
       </c>
@@ -851,7 +860,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>63</v>
       </c>
@@ -889,7 +898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>56</v>
       </c>
@@ -927,7 +936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>79</v>
       </c>
@@ -965,7 +974,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>82</v>
       </c>
@@ -1003,7 +1012,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>62</v>
       </c>
@@ -1041,7 +1050,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>63</v>
       </c>
@@ -1079,7 +1088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>70</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>85</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>90</v>
       </c>
@@ -1193,7 +1202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>83</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>85</v>
       </c>
@@ -1275,24 +1284,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
